--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4143919.274781292</v>
+        <v>4141351.953473702</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205916</v>
+        <v>9964927.035287928</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431056</v>
+        <v>430763.7823717225</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7217218.223457729</v>
+        <v>7217371.228995722</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>102.8535291564769</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>330.6679898432817</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.6210949690525</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>367.121554986546</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>74.7151540747205</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.26682930112241</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>164.5779393906808</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.60620160013897</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>141.1752474211312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>114.7706165465637</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>23.94516103140406</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3530599751218</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>9.434273714503275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>8.099360810322768</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417104</v>
       </c>
       <c r="G20" t="n">
         <v>409.8432760127576</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>89.5340822374514</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>89.53408223745137</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.4539897919539</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>81.37259901119292</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.729505493042395</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2570,7 +2570,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>91.23885045891228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>122.7304780978512</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127557</v>
       </c>
       <c r="H29" t="n">
         <v>283.5630920045443</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>84.56702400647403</v>
+        <v>107.8315324693115</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.2994840232532</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S34" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T34" t="n">
-        <v>141.4740238230462</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H35" t="n">
         <v>283.5630920045443</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>105.3798824585327</v>
+        <v>1.749532638427066</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3715,7 +3715,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>210.177480908705</v>
+        <v>0.5702895981421192</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>58.77646003115839</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,7 +3913,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>22.39216899855766</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -3952,7 +3952,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428202</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>175.3490627924151</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>722.2873163082934</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>722.2873163082934</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>722.2873163082934</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>722.2873163082934</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>311.3014115186858</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.2873163082934</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,25 +4413,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>478.8522906713811</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2566.650548947988</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2312.888763586079</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.825876242509</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1629.057220972395</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1255.591462711315</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>865.4521307355029</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2530.908748199353</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2277.146962837444</v>
       </c>
       <c r="V8" t="n">
-        <v>2368.607930856721</v>
+        <v>2277.146962837444</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1924.37830756733</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1550.91254930625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4966,40 +4966,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
         <v>53.94298182036445</v>
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5027,64 +5027,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I11" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K12" t="n">
-        <v>243.9627910411614</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L12" t="n">
-        <v>734.6951238849127</v>
+        <v>584.580680995359</v>
       </c>
       <c r="M12" t="n">
-        <v>734.6951238849127</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.791087284249</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284443</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1012.502435882578</v>
+        <v>676.7441797778425</v>
       </c>
       <c r="C13" t="n">
-        <v>843.5662529546713</v>
+        <v>507.8079968499356</v>
       </c>
       <c r="D13" t="n">
-        <v>693.4496135423356</v>
+        <v>357.6913574375999</v>
       </c>
       <c r="E13" t="n">
-        <v>545.5365199599424</v>
+        <v>209.7782638552068</v>
       </c>
       <c r="F13" t="n">
-        <v>402.9352599385978</v>
+        <v>209.7782638552068</v>
       </c>
       <c r="G13" t="n">
-        <v>235.7210651131766</v>
+        <v>209.7782638552068</v>
       </c>
       <c r="H13" t="n">
         <v>93.84834815160703</v>
@@ -5197,52 +5197,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W13" t="n">
-        <v>1414.943479856348</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X13" t="n">
-        <v>1414.943479856348</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y13" t="n">
-        <v>1194.150900712818</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
         <v>1949.298676890959</v>
@@ -5264,7 +5264,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
@@ -5276,28 +5276,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5355,28 +5355,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0050724668117</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.737405310563</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.755759562691</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N15" t="n">
-        <v>2276.851722962027</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.9550599890988</v>
+        <v>559.092275971757</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7680286442462</v>
+        <v>559.092275971757</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6513892319105</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7382956495174</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F16" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G16" t="n">
         <v>93.84834815160703</v>
@@ -5458,28 +5458,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>965.3961039628687</v>
+        <v>961.5333199455268</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.6035248193385</v>
+        <v>740.7407408019967</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E17" t="n">
         <v>1205.244725685964</v>
@@ -5513,52 +5513,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J18" t="n">
-        <v>241.496329903453</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668117</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310563</v>
+        <v>757.4953578101982</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.755759562691</v>
+        <v>1349.513712062326</v>
       </c>
       <c r="N18" t="n">
-        <v>1654.755759562691</v>
+        <v>1971.609675461662</v>
       </c>
       <c r="O18" t="n">
-        <v>2201.632234562885</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R18" t="n">
         <v>2553.812354695766</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476001</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C19" t="n">
-        <v>485.5661455390109</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D19" t="n">
-        <v>485.5661455390109</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="E19" t="n">
-        <v>485.5661455390109</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="F19" t="n">
-        <v>485.5661455390109</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G19" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
         <v>93.84834815160703</v>
@@ -5695,28 +5695,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K20" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J21" t="n">
-        <v>241.496329903453</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668118</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.737405310563</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="M21" t="n">
-        <v>1654.755759562691</v>
+        <v>1165.062459293462</v>
       </c>
       <c r="N21" t="n">
-        <v>2276.851722962027</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O21" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5890,28 +5890,28 @@
         <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="E22" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F22" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G22" t="n">
         <v>235.7210651131766</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
         <v>820.2210160948589</v>
@@ -5981,34 +5981,34 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507198</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384016</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6063,31 +6063,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K24" t="n">
-        <v>424.3570907149658</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="L24" t="n">
-        <v>915.0894235587172</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="M24" t="n">
-        <v>1507.107777810845</v>
+        <v>1017.414477541616</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.203741210181</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6127,19 +6127,19 @@
         <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196932</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E25" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F25" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6206,28 +6206,28 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507198</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384016</v>
       </c>
       <c r="L26" t="n">
         <v>1462.494387944176</v>
@@ -6236,7 +6236,7 @@
         <v>2183.498949883214</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O26" t="n">
         <v>3654.445485610258</v>
@@ -6315,16 +6315,16 @@
         <v>1507.107777810845</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.203741210181</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149476001</v>
+        <v>660.5427050877414</v>
       </c>
       <c r="C28" t="n">
-        <v>402.9352599385978</v>
+        <v>491.6065221598345</v>
       </c>
       <c r="D28" t="n">
-        <v>402.9352599385978</v>
+        <v>491.6065221598345</v>
       </c>
       <c r="E28" t="n">
-        <v>402.9352599385978</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385978</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
@@ -6421,13 +6421,13 @@
         <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819387</v>
+        <v>1290.973299959529</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213699</v>
+        <v>1062.983749061511</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778398</v>
+        <v>842.1911699179811</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831368</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890957</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284206</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685962</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963546</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J29" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K29" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746067</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402496</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132382</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871302</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.86103389549</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L30" t="n">
-        <v>142.676769632785</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M30" t="n">
-        <v>734.6951238849127</v>
+        <v>1016.375444967093</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476001</v>
+        <v>744.6035248193381</v>
       </c>
       <c r="C31" t="n">
-        <v>326.1595320196932</v>
+        <v>744.6035248193381</v>
       </c>
       <c r="D31" t="n">
-        <v>326.1595320196932</v>
+        <v>594.4868854070023</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160703</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J31" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948588</v>
       </c>
       <c r="M31" t="n">
         <v>1239.450608139318</v>
@@ -6634,37 +6634,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628682</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193381</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J32" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K32" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151115</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610255</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297604</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403611</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S32" t="n">
         <v>4606.9501443472</v>
@@ -6771,34 +6771,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612971</v>
       </c>
       <c r="J33" t="n">
-        <v>241.496329903453</v>
+        <v>242.5353624779759</v>
       </c>
       <c r="K33" t="n">
-        <v>241.496329903453</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="L33" t="n">
-        <v>732.2286627472043</v>
+        <v>1063.776437885087</v>
       </c>
       <c r="M33" t="n">
-        <v>1324.247016999332</v>
+        <v>1063.776437885087</v>
       </c>
       <c r="N33" t="n">
-        <v>1356.791087284249</v>
+        <v>1685.872401284424</v>
       </c>
       <c r="O33" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.8714428665047</v>
+        <v>784.171928632876</v>
       </c>
       <c r="C34" t="n">
-        <v>402.9352599385978</v>
+        <v>615.2357457049691</v>
       </c>
       <c r="D34" t="n">
-        <v>402.9352599385978</v>
+        <v>465.1191062926333</v>
       </c>
       <c r="E34" t="n">
-        <v>402.9352599385978</v>
+        <v>465.1191062926333</v>
       </c>
       <c r="F34" t="n">
-        <v>402.9352599385978</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.403695981139</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.719207775252</v>
+        <v>1704.019693541624</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.302037738292</v>
+        <v>1414.602523504663</v>
       </c>
       <c r="X34" t="n">
-        <v>974.3124868402746</v>
+        <v>1186.612972606646</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.5199076967444</v>
+        <v>965.8203934631157</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
@@ -6935,28 +6935,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
@@ -6977,10 +6977,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>915.0894235587172</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1507.107777810845</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.203741210181</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.812354695766</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7072,22 +7072,22 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>495.0957149476001</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6513892319105</v>
+        <v>324.3923273344133</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7382956495174</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="F37" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
@@ -7151,7 +7151,7 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7160,25 +7160,25 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
         <v>2234.298471234014</v>
@@ -7251,28 +7251,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>142.676769632785</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L39" t="n">
-        <v>142.676769632785</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="M39" t="n">
-        <v>734.6951238849127</v>
+        <v>833.5146841555804</v>
       </c>
       <c r="N39" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.8714428665047</v>
+        <v>783.5958785337399</v>
       </c>
       <c r="C40" t="n">
-        <v>402.9352599385978</v>
+        <v>783.5958785337399</v>
       </c>
       <c r="D40" t="n">
-        <v>402.9352599385978</v>
+        <v>633.4792391214041</v>
       </c>
       <c r="E40" t="n">
-        <v>402.9352599385978</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F40" t="n">
-        <v>402.9352599385978</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7363,19 +7363,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.403695981139</v>
+        <v>1958.128131648375</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.719207775252</v>
+        <v>1703.443643442488</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.302037738292</v>
+        <v>1414.026473405527</v>
       </c>
       <c r="X40" t="n">
-        <v>974.3124868402746</v>
+        <v>1186.03692250751</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.5199076967444</v>
+        <v>965.2443433639796</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7397,7 +7397,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G41" t="n">
         <v>380.2757138127629</v>
@@ -7409,25 +7409,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q41" t="n">
         <v>4566.333620403613</v>
@@ -7445,16 +7445,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K42" t="n">
-        <v>243.9627910411614</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L42" t="n">
-        <v>734.6951238849127</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M42" t="n">
-        <v>734.6951238849127</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.1719286328732</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="C43" t="n">
-        <v>615.2357457049663</v>
+        <v>728.6005759934631</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8655840573316</v>
+        <v>578.4839365811273</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9524904749385</v>
+        <v>430.5708429987342</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0625429770282</v>
+        <v>283.6808955008238</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160703</v>
+        <v>116.4667006754026</v>
       </c>
       <c r="H43" t="n">
         <v>93.84834815160703</v>
@@ -7600,19 +7600,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1958.704181747508</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1704.019693541621</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1414.60252350466</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>1186.612972606643</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>965.820393463113</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399033</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556112</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148067</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112148</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436021</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118413</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171644</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814816</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003546</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391034</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.8059044336479</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2713464605329</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7731203228276</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0987265385863</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.477214165138</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.075177719745</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.09297316441</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.09297316441</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372036</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166503</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8852858437067</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9491029157998</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9491029157998</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9491029157998</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9491029157998</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7530036306798</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074696</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834098</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614144</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958342</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752455</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715494</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174766</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5337506739464</v>
+        <v>720.4164934744859</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8699,13 +8699,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>51.31264782909096</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,10 +9884,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O26" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782908994</v>
       </c>
       <c r="R29" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>51.3126478290817</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.245800601800028</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>25.68337324539014</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.3016600672238</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>63.35659541391533</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>157.8125473841246</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>137.3216872126085</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>59.08139078076096</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>76.00797063971555</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537625</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>157.8125473841245</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>163.7925202387398</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>61.86693864009514</v>
+        <v>38.60243017725767</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0.1215639996780169</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>76.00797063971558</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>43.23559055967969</v>
+        <v>146.8659403797853</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
@@ -25330,7 +25330,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>76.00797063971547</v>
+        <v>285.6151619502783</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>89.83901298705396</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>118.0618207933963</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194184</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>43.23559055967965</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609284.5696440728</v>
+        <v>609284.5696440727</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>609284.5696440728</v>
+        <v>609284.5696440727</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609019.6135575785</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>806682.9771185588</v>
+        <v>806682.9771185589</v>
       </c>
       <c r="F2" t="n">
         <v>806682.9771185589</v>
       </c>
       <c r="G2" t="n">
+        <v>806682.9771185594</v>
+      </c>
+      <c r="H2" t="n">
         <v>806682.9771185589</v>
-      </c>
-      <c r="H2" t="n">
-        <v>806682.9771185587</v>
       </c>
       <c r="I2" t="n">
         <v>806682.9771185589</v>
       </c>
       <c r="J2" t="n">
-        <v>806682.9771185589</v>
+        <v>806682.9771185588</v>
       </c>
       <c r="K2" t="n">
         <v>806682.9771185588</v>
       </c>
       <c r="L2" t="n">
-        <v>806682.9771185588</v>
+        <v>806682.9771185591</v>
       </c>
       <c r="M2" t="n">
-        <v>806682.9771185593</v>
+        <v>806682.9771185591</v>
       </c>
       <c r="N2" t="n">
         <v>806682.9771185589</v>
       </c>
       <c r="O2" t="n">
-        <v>806682.9771185591</v>
+        <v>806682.9771185589</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>806682.9771185589</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545122</v>
+        <v>936509.6654545135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.865344635335041e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.138088009611238e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901372</v>
+        <v>124307.2113901362</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662901</v>
+        <v>5069.915760662817</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.915760662893</v>
+        <v>5069.915760662918</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760662929</v>
+        <v>5069.915760662965</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.915760662921</v>
+        <v>5069.915760662965</v>
       </c>
       <c r="I4" t="n">
-        <v>5069.915760662893</v>
+        <v>5069.91576066292</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760662961</v>
+        <v>5069.915760662918</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.915760662893</v>
+        <v>5069.915760662992</v>
       </c>
       <c r="L4" t="n">
-        <v>5069.915760662893</v>
+        <v>5069.915760662806</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662893</v>
+        <v>5069.915760662967</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662911</v>
+        <v>5069.915760662917</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.91576066291</v>
+        <v>5069.915760662915</v>
       </c>
       <c r="P4" t="n">
-        <v>4457.648636658129</v>
+        <v>5069.915760662915</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="F5" t="n">
         <v>100930.0394572385</v>
@@ -26485,7 +26485,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
         <v>100930.0394572385</v>
@@ -26497,7 +26497,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
@@ -26509,7 +26509,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43991.78380610034</v>
+        <v>-43991.78380610046</v>
       </c>
       <c r="C6" t="n">
-        <v>545976.0954084439</v>
+        <v>545976.0954084438</v>
       </c>
       <c r="D6" t="n">
         <v>545976.0954084439</v>
       </c>
       <c r="E6" t="n">
-        <v>-235826.6435538548</v>
+        <v>-235862.5405357203</v>
       </c>
       <c r="F6" t="n">
-        <v>700683.0219006576</v>
+        <v>700647.1249187945</v>
       </c>
       <c r="G6" t="n">
-        <v>700683.0219006576</v>
+        <v>700647.1249187936</v>
       </c>
       <c r="H6" t="n">
-        <v>700683.0219006573</v>
+        <v>700647.1249187931</v>
       </c>
       <c r="I6" t="n">
-        <v>700683.0219006576</v>
+        <v>700647.1249187932</v>
       </c>
       <c r="J6" t="n">
-        <v>524259.8027080647</v>
+        <v>524223.9057262003</v>
       </c>
       <c r="K6" t="n">
-        <v>700683.0219006573</v>
+        <v>700647.124918793</v>
       </c>
       <c r="L6" t="n">
-        <v>700683.0219006574</v>
+        <v>700647.1249187923</v>
       </c>
       <c r="M6" t="n">
-        <v>576375.8105105207</v>
+        <v>576339.9135286571</v>
       </c>
       <c r="N6" t="n">
-        <v>700683.0219006576</v>
+        <v>700647.1249187932</v>
       </c>
       <c r="O6" t="n">
-        <v>700683.0219006577</v>
+        <v>700647.1249187932</v>
       </c>
       <c r="P6" t="n">
-        <v>694930.2079757255</v>
+        <v>700647.1249187932</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.581680794168801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.581680794168801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26765,7 +26765,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26777,7 +26777,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.581680794168801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.581680794168801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992991</v>
+        <v>980.2973844993006</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,13 +26984,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-1.51259619413477e-12</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.581680794168801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>310.9306408643181</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.57297887413131</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753847</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>14.80881508571576</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>141.7331662829373</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>126.3983626790354</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>51.87038096697697</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>2.496509910248449</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5393373498799</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.012949724099599e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>289.4721893678483</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>526.6549600581787</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,7 +32069,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,34 +32078,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169084</v>
+        <v>692.1864879305069</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32306,10 +32306,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
         <v>275.9770021735818</v>
@@ -32318,31 +32318,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745725</v>
+        <v>324.8687765161005</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>489.7119024980487</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32388,7 +32388,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32397,16 +32397,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32418,7 +32418,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32543,10 +32543,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
         <v>275.9770021735818</v>
@@ -32555,31 +32555,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>748.8287286660236</v>
       </c>
       <c r="O21" t="n">
-        <v>189.4642825742344</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32625,7 +32625,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32634,16 +32634,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
         <v>0.436756920190194</v>
@@ -32780,10 +32780,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,31 +32792,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>438.4633338093165</v>
       </c>
       <c r="O24" t="n">
-        <v>571.4938338238233</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
         <v>0.1921756201013754</v>
@@ -32862,7 +32862,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32871,16 +32871,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
         <v>296.1865264282424</v>
@@ -32892,7 +32892,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -33035,19 +33035,19 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>367.6453723515863</v>
       </c>
       <c r="O27" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S27" t="n">
         <v>54.2575834086216</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
         <v>0.436756920190194</v>
@@ -33254,7 +33254,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,34 +33263,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>187.8760176396499</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927639</v>
+        <v>439.5128616623697</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
         <v>0.1921756201013754</v>
@@ -33336,7 +33336,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
         <v>173.1391022273333</v>
@@ -33345,16 +33345,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
         <v>296.1865264282424</v>
@@ -33366,7 +33366,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T31" t="n">
         <v>10.46359496551969</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M32" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T32" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U32" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>164.2145103509261</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>326.9083219859672</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982454</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,43 +33728,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>571.4938338238233</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>180.8424455441211</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,43 +33965,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>187.1630768341347</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>624.220700865918</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34047,7 +34047,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34202,43 +34202,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>140.3328138609331</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>419.9237601200359</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34284,7 +34284,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34293,16 +34293,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>452.027140557599</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554536</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P11" t="n">
-        <v>605.1570404425727</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>151.6307503934893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>384.5209261361604</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>279.758213872464</v>
+        <v>549.5902434860625</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>525.6867728671534</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J18" t="n">
         <v>149.1393755069151</v>
@@ -35966,25 +35966,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946983</v>
+        <v>186.3143967362263</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>355.7374950837184</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36048,19 +36048,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>677.0902038955306</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J21" t="n">
         <v>149.1393755069151</v>
@@ -36203,22 +36203,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>617.4870165826903</v>
       </c>
       <c r="O21" t="n">
-        <v>46.86803812978999</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36285,19 +36285,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>307.1216217259832</v>
       </c>
       <c r="O24" t="n">
-        <v>428.8975893793788</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
         <v>262.2512393642057</v>
@@ -36522,19 +36522,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,10 +36604,10 @@
         <v>728.287436302058</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O26" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P26" t="n">
         <v>553.8443926134828</v>
@@ -36683,19 +36683,19 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>236.303660268253</v>
       </c>
       <c r="O27" t="n">
-        <v>428.8975893793793</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404112</v>
+        <v>418.567381269501</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>49.32163785977568</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094306</v>
+        <v>308.1711495790364</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K31" t="n">
         <v>262.2512393642057</v>
@@ -36996,19 +36996,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N32" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554527</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P32" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946983</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>32.8727982675928</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>184.3120775415228</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L34" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O34" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>428.8975893793788</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>46.86803812979091</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37470,19 +37470,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>677.0902038955297</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>49.32163785977568</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>492.8789887825847</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37707,19 +37707,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>779.6000841311486</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>2.491374886574134</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>277.7897261980175</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37944,19 +37944,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>313.4727607777248</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
